--- a/WOUOGOU_Hélène_2_Liste des données utilisées_112023.xlsx
+++ b/WOUOGOU_Hélène_2_Liste des données utilisées_112023.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helene\Mes documents\programme formation data analyst\Formation BI-Analyst Openclassrooms\9-Portofolio de BI Analyt\Mission\Livrables projet 9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helene\Mes documents\programme formation data analyst\Formation BI-Analyst Openclassrooms\9-Portofolio de BI Analyt\Mission\Doc_Github\Projet 9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B207D0-F9F3-4CA6-BEBD-B829786ACA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AEB26A3-2A6F-4218-A3A5-92EBBD64DE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuille 1 " sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>Nom du projet</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Nom de la donnée</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -98,12 +95,6 @@
     <t>personnelle</t>
   </si>
   <si>
-    <t>Texte,nombre entier</t>
-  </si>
-  <si>
-    <t>Texte,nombre entier,date</t>
-  </si>
-  <si>
     <t xml:space="preserve">Liste des compétences acquises en realisant des taches professionnelles et des différents projets </t>
   </si>
   <si>
@@ -119,22 +110,118 @@
     <t>Liste des outils techniques et languages utilisées en realisant des taches professionnelles et des différents projets</t>
   </si>
   <si>
-    <t>Différents postes occupés en fonction des entreprises,de la période, de la localisation et des compétences acquises</t>
-  </si>
-  <si>
-    <t>Université ou organisme de formation,diplomes obtenus, années,compétences acquises et projets realisés</t>
-  </si>
-  <si>
-    <t>Langues parlées, pratiquées et niveau en fonction des compétences</t>
-  </si>
-  <si>
-    <t>Texte,date</t>
-  </si>
-  <si>
-    <t>Type de projets realisés , date du livrable, compétences acquises</t>
-  </si>
-  <si>
     <t>Logos utilisés (linkedin,Github,email,tableau)</t>
+  </si>
+  <si>
+    <t>Nom du champs</t>
+  </si>
+  <si>
+    <t>Type de données</t>
+  </si>
+  <si>
+    <t>Compétences acquises</t>
+  </si>
+  <si>
+    <t>Compétences</t>
+  </si>
+  <si>
+    <t>Expériences</t>
+  </si>
+  <si>
+    <t>Entreprises</t>
+  </si>
+  <si>
+    <t>Durée</t>
+  </si>
+  <si>
+    <t>Date du debut</t>
+  </si>
+  <si>
+    <t>Date de fin</t>
+  </si>
+  <si>
+    <t>Localisation</t>
+  </si>
+  <si>
+    <t>Description du poste</t>
+  </si>
+  <si>
+    <t>Année</t>
+  </si>
+  <si>
+    <t>Université</t>
+  </si>
+  <si>
+    <t>Diplôme</t>
+  </si>
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Date du livrable</t>
+  </si>
+  <si>
+    <t>catégorie</t>
+  </si>
+  <si>
+    <t>Entier</t>
+  </si>
+  <si>
+    <t>Fiche métier</t>
+  </si>
+  <si>
+    <t>id_compétence</t>
+  </si>
+  <si>
+    <t>id_Expérience</t>
+  </si>
+  <si>
+    <t>nombre de jours travaillés dans une entreprise</t>
+  </si>
+  <si>
+    <t>Date de debut d'un contrat dans une entreprise</t>
+  </si>
+  <si>
+    <t>Date de fin d'un contrat dans une entreprise</t>
+  </si>
+  <si>
+    <t>ville siège de l'entreprise</t>
+  </si>
+  <si>
+    <t>Intitullé du poste occupé</t>
+  </si>
+  <si>
+    <t>Noms des entreprises du parcours professionnel</t>
+  </si>
+  <si>
+    <t>Année d'obtention du diplôme</t>
+  </si>
+  <si>
+    <t>nom des universités et organismes de formation</t>
+  </si>
+  <si>
+    <t>id_Formation</t>
+  </si>
+  <si>
+    <t>Niveau de la langue</t>
+  </si>
+  <si>
+    <t>catégorie du projet</t>
+  </si>
+  <si>
+    <t>date du début du livrable</t>
+  </si>
+  <si>
+    <t>Intitulé du diplôme obtenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langues parlées, pratiquées </t>
+  </si>
+  <si>
+    <t>différents niveaux de langues parlées ou pratiquées</t>
   </si>
 </sst>
 </file>
@@ -203,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -226,11 +313,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -241,6 +395,31 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,41 +634,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32064CED-26A9-4076-B6D8-9F58F79E1067}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="98.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="98.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -497,150 +676,470 @@
         <v>45314</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="8"/>
+      <c r="B34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="E36" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>